--- a/report/reliability/by-comb/UFAL A.C. Simões-Ensino Superior-Ciências Exatas e da Terra.xlsx
+++ b/report/reliability/by-comb/UFAL A.C. Simões-Ensino Superior-Ciências Exatas e da Terra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8985597860616632</v>
+        <v>0.872157437054286</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9026763189864908</v>
+        <v>0.8766589528030965</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9547230520826676</v>
+        <v>0.9268726866498181</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3529969374931803</v>
+        <v>0.35347831959705983</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>9.274991549705087</v>
+        <v>7.107601019501527</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.02410125752178665</v>
+        <v>0.030773068797553885</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4864864864864864</v>
+        <v>2.3471933471933473</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.670641072429466</v>
+        <v>0.6988347636112312</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.34947119070400645</v>
+        <v>0.3475704713356279</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8916459358845427</v>
+        <v>0.861735588119953</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8964486947932637</v>
+        <v>0.8669222148706249</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9467164038240836</v>
+        <v>0.9109761071446474</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3510983338704029</v>
+        <v>0.35185592940387106</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>8.65704872578416</v>
+        <v>6.514402189875823</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02571722185718789</v>
+        <v>0.03338370818077917</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.029912307066440123</v>
+        <v>0.02788293047684381</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.34947119070400645</v>
+        <v>0.34897081004574526</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8929454151009182</v>
+        <v>0.8596599672566912</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8976338045203458</v>
+        <v>0.8654014286543085</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9509745319025956</v>
+        <v>0.9089326493359677</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3540273345362163</v>
+        <v>0.34886999565232424</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>8.768849914899436</v>
+        <v>6.429499362453753</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.025513429527436973</v>
+        <v>0.03379564744265533</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.029911911862688066</v>
+        <v>0.026662318936480366</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3489080740899389</v>
+        <v>0.3475704713356279</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.892254437631653</v>
+        <v>0.8606922668390791</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8967208786842199</v>
+        <v>0.8658175236030814</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9475701914102919</v>
+        <v>0.9175783944903061</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.35176742314117243</v>
+        <v>0.3496829530575448</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>8.682499107854138</v>
+        <v>6.452537968087199</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.025642072249218387</v>
+        <v>0.033697726491374196</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.030585713003446223</v>
+        <v>0.02668995570959396</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3559859756166548</v>
+        <v>0.33903260192838053</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8910366621826489</v>
+        <v>0.8593701278453383</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8950208360455245</v>
+        <v>0.8632862717968154</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9452425976846741</v>
+        <v>0.9074142032564377</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.34762309996371565</v>
+        <v>0.3447834029532694</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>8.525699789661623</v>
+        <v>6.314554384134672</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.025936609664563914</v>
+        <v>0.03396864759685269</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.027603284938958066</v>
+        <v>0.02402180085072223</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.3489080740899389</v>
+        <v>0.3451975768116483</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8899927580015512</v>
+        <v>0.877934662137037</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8933221943845762</v>
+        <v>0.881949771725497</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.949753512593462</v>
+        <v>0.9223873373847291</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.34356338090813643</v>
+        <v>0.3836979000903072</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>8.374021093056838</v>
+        <v>7.470970489567321</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.026145092186462604</v>
+        <v>0.02938403913242435</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03025488558002831</v>
+        <v>0.02115425341920608</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3489080740899389</v>
+        <v>0.3651771700450208</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8891998433624854</v>
+        <v>0.8585424188763424</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8932243861614614</v>
+        <v>0.8626988749112965</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9501190193463728</v>
+        <v>0.9176453944584216</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.34333204243688964</v>
+        <v>0.34366196142261884</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>8.365434335148429</v>
+        <v>6.283261512634728</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.026356332412558844</v>
+        <v>0.03414815973614255</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.030021830824896446</v>
+        <v>0.02673642497299131</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.34663867156029604</v>
+        <v>0.3425671787751471</v>
       </c>
     </row>
     <row r="17">
@@ -2723,25 +2711,25 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8907127052011999</v>
+        <v>0.8668954470934257</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8952760572679094</v>
+        <v>0.8720570035741743</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9486807029446729</v>
+        <v>0.9168004443741926</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3482400272331377</v>
+        <v>0.3622442462452387</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>8.548914736320079</v>
+        <v>6.815980772185093</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02602093896547486</v>
+        <v>0.0317789442348898</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.027711368897500845</v>
+        <v>0.02687593611165837</v>
       </c>
       <c r="I17" t="n" s="65">
         <v>0.3475704713356279</v>
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8887750746905676</v>
+        <v>0.8599264788795923</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8931786523314723</v>
+        <v>0.8632687806967401</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9484007954049214</v>
+        <v>0.9163886378311885</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3432239611303529</v>
+        <v>0.3447499258375291</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>8.36142467611487</v>
+        <v>6.313618682665834</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.026744435072665645</v>
+        <v>0.033822816919749414</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.028995306614952508</v>
+        <v>0.028152998102703285</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.34663867156029604</v>
+        <v>0.3475704713356279</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8958730320910708</v>
+        <v>0.8609369151034049</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9003346201751208</v>
+        <v>0.8660875789183631</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9483601133238306</v>
+        <v>0.9134288367629912</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.36085835097763597</v>
+        <v>0.35021219166238493</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.033574364108054</v>
+        <v>6.467567175044735</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.024603809116122907</v>
+        <v>0.03358507256282277</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.030117099833179055</v>
+        <v>0.023212822721557586</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.35057034989400565</v>
+        <v>0.34123070748536033</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9021969509682736</v>
+        <v>0.8586648212876077</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9058538073549675</v>
+        <v>0.8626336730479646</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9523976213122796</v>
+        <v>0.9128463039236977</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.37553124844706437</v>
+        <v>0.34353783573870755</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>9.621778448018459</v>
+        <v>6.279804462917417</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.023214220757052827</v>
+        <v>0.03436726440147277</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.026463113536209365</v>
+        <v>0.025379875108067138</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.3656650257657349</v>
+        <v>0.3451975768116483</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8907652651520194</v>
+        <v>0.8609161887272491</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.895363010227396</v>
+        <v>0.8659097345942285</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9508291228710735</v>
+        <v>0.9215657361634035</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.34845063199018306</v>
+        <v>0.3498635199255178</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>8.55684984987803</v>
+        <v>6.457662918138715</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02598074813722697</v>
+        <v>0.03355365269596488</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03246151988320515</v>
+        <v>0.030495692638399147</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3476750947944889</v>
+        <v>0.3451975768116483</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8870239549583046</v>
+        <v>0.862458744596123</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8912166780487726</v>
+        <v>0.8676711772506281</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9452177940992311</v>
+        <v>0.9245721059314831</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.33864034800622284</v>
+        <v>0.35334140442001516</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>8.192585610212802</v>
+        <v>6.556932641152415</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.026908045102831797</v>
+        <v>0.03327691025921582</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.0281094806128327</v>
+        <v>0.029774651163331074</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.34123070748536033</v>
+        <v>0.3425671787751471</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.8893028711393999</v>
+        <v>0.869037407498946</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.892714459882357</v>
+        <v>0.8751389686928793</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9471824120319078</v>
+        <v>0.9284752139384106</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3421301656683474</v>
+        <v>0.3687168883524485</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>8.32092059100844</v>
+        <v>7.0089038952457505</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.026347124251057903</v>
+        <v>0.031855578916148</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.02933649878731303</v>
+        <v>0.02801961890990433</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3451975768116483</v>
+        <v>0.35618557095851</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.8956329981236691</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.900231494094846</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9533379768268613</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3605934491626663</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>9.023203123344965</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.024818553960671334</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.030117980222697485</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.3607639745851093</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.8977081286269768</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.902078665638521</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9508061337299932</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.36538859050211464</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.212279137337688</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.024390968987780332</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.027513637670329005</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3611659399588468</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.8975266941340955</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.9027936020897988</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9526975132593826</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3672735375683924</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>9.287388705872983</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.024540477904578025</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.02901650394663371</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.3611659399588468</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.8952241024517448</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.8996892701353185</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9514208259350003</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.35920601184141365</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>8.969023267490853</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.024939171925600797</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.030251979144963945</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.35514875352060493</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.6672476491205508</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6479602738659177</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.6400069741522286</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5734389537141629</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.5135135135135136</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.3254270092150517</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.6819353052328652</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.6718336970465397</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.6692048177179116</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.6009985551010593</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.2972972972972974</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.1987230443004493</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.6617120343021164</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.6653338622285042</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6415448505775974</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.5881820082746362</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.2162162162162162</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.0576476817062563</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>37.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.699228247567376</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.7045072139391487</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.7092952352432348</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6449851703703458</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.7297297297297298</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>0.8707802583076044</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6565660712126381</v>
+        <v>0.3939380361655783</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6467758922746285</v>
+        <v>0.3933743036619741</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.642639229952124</v>
+        <v>0.3534098689364505</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.590174945836593</v>
+        <v>0.27914586847723005</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.2972972972972974</v>
+        <v>3.2972972972972974</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.1987230443004493</v>
+        <v>1.151445103261908</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6147022763273347</v>
+        <v>0.7025526337916251</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6137136464296267</v>
+        <v>0.7134734705480491</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.5940232520142471</v>
+        <v>0.69210022157548</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.5518378259532167</v>
+        <v>0.6427827572964661</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.2162162162162162</v>
+        <v>1.837837837837838</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.0576476817062563</v>
+        <v>0.9578190943061312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6560038761640508</v>
+        <v>0.5660813447428686</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6392232842398702</v>
+        <v>0.5649026092543449</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6334179689161206</v>
+        <v>0.5411611526689177</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.5816912476631068</v>
+        <v>0.4741516382502309</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.5135135135135136</v>
+        <v>3.135135135135135</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.3254270092150517</v>
+        <v>1.109608593708264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6818835309308054</v>
+        <v>0.6931742925656628</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6860039604457467</v>
+        <v>0.7047748733775138</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6895342758883667</v>
+        <v>0.686294768525559</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6376667612897874</v>
+        <v>0.640039343831919</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.7297297297297298</v>
+        <v>1.8918918918918919</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>0.8707802583076044</v>
+        <v>0.8427397048971944</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.7230125112475874</v>
+        <v>0.6582594084181631</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.7318296343842412</v>
+        <v>0.6611024431053156</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.719989260880848</v>
+        <v>0.6532228342210452</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.6847469921242355</v>
+        <v>0.5820964782340933</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.8918918918918919</v>
+        <v>2.135135135135135</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.8427397048971944</v>
+        <v>1.0842857905901357</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.726550858408994</v>
+        <v>0.7171565231493495</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.7344409582733205</v>
+        <v>0.7144658920905773</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.7189370513730649</v>
+        <v>0.706254510193423</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6830184649978777</v>
+        <v>0.6257348993774513</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.837837837837838</v>
+        <v>2.2162162162162162</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9578190943061312</v>
+        <v>1.436336681653387</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6755755444393936</v>
+        <v>0.6650954538674907</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6790401514960985</v>
+        <v>0.6638901767317031</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6725130120404139</v>
+        <v>0.6243751249241062</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6185924060517768</v>
+        <v>0.5805604811916453</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.135135135135135</v>
+        <v>2.7837837837837838</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.0842857905901357</v>
+        <v>1.2049696892253978</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.7376146028938579</v>
+        <v>0.6389481891523935</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.7356609684869321</v>
+        <v>0.6360834619084264</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.7274827929427292</v>
+        <v>0.5839417363411117</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.6713447415017136</v>
+        <v>0.554068062888358</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.2162162162162162</v>
+        <v>1.945945945945946</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.436336681653387</v>
+        <v>1.1533994669369023</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>37.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.539390133342345</v>
+        <v>0.5029132013862291</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.5366058643818048</v>
+        <v>0.5131519218715178</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5231783526107049</v>
+        <v>0.446485010769705</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.46482097573406184</v>
+        <v>0.42318556895129256</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>3.135135135135135</v>
+        <v>2.5135135135135136</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>1.109608593708264</v>
+        <v>0.9012837024557319</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.37458878350268815</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.37097976908761965</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.3433871183903105</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.28301311582123584</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.2972972972972974</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.151445103261908</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6776996965735622</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.6766628675525229</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.6522798466841181</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.613993291919004</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.7837837837837838</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.2049696892253978</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7811123656399293</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7874003025666935</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.789748088695188</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.7428657942949756</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.6486486486486487</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>1.005988077470112</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.7397865842488093</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.7480076145259932</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.7433674609353272</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.7021380809770267</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.4864864864864864</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.86991767240168</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5335353748696386</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5395960477004842</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.5098425020203611</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.4654961165778125</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.7567567567567566</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>1.0111985574171487</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.483907401842241</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.485469005779057</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.46313231292383733</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.40601658572840355</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.864864864864865</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.0842857905901357</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.4591985100048886</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.4641919251564804</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.4322146234867158</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.39342115982411513</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.5135135135135136</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9012837024557319</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>37.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5630435114348906</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5552572916002171</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5317179722238411</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.48786087507161685</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>1.945945945945946</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.1533994669369023</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.35135135135135137</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.24324324324324326</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="D53" t="n" s="111">
         <v>0.16216216216216217</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24324324324324326</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.0</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.35135135135135137</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C54" t="n" s="110">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D54" t="n" s="111">
         <v>0.16216216216216217</v>
       </c>
-      <c r="D54" t="n" s="111">
-        <v>0.43243243243243246</v>
-      </c>
       <c r="E54" t="n" s="112">
-        <v>0.02702702702702703</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.02702702702702703</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C55" t="n" s="110">
         <v>0.21621621621621623</v>
       </c>
-      <c r="C55" t="n" s="110">
-        <v>0.40540540540540543</v>
-      </c>
       <c r="D55" t="n" s="111">
-        <v>0.1891891891891892</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.02702702702702703</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.16216216216216217</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.4594594594594595</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.43243243243243246</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.02702702702702703</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="E56" t="n" s="112">
         <v>0.08108108108108109</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.35135135135135137</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.4594594594594595</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.13513513513513514</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.05405405405405406</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.35135135135135137</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.6727438468550593</v>
+        <v>0.7807951336085162</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.6920891035350869</v>
+        <v>0.7896109342372117</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.6378479814581357</v>
+        <v>0.7145232110235168</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.42832019382544856</v>
+        <v>0.5557594931372981</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>2.2476927951588475</v>
+        <v>3.7530987239017977</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.09138858055772844</v>
+        <v>0.06027497735076372</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.02624416947017151</v>
+        <v>5.023926964687105E-5</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.49324031596446033</v>
+        <v>0.5581231897861654</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7517058377558755</v>
+        <v>0.6727438468550593</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7518766889999652</v>
+        <v>0.6920891035350869</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7577113715334691</v>
+        <v>0.6378479814581357</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5025085289715897</v>
+        <v>0.42832019382544856</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.030254134404404</v>
+        <v>2.2476927951588475</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.06633502351032106</v>
+        <v>0.09138858055772844</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.055575753546872775</v>
+        <v>0.026244169470171514</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5581231897861654</v>
+        <v>0.4932403159644604</v>
       </c>
     </row>
     <row r="13">
@@ -4153,25 +3829,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.7807951336085162</v>
+        <v>0.7517058377558755</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.7896109342372117</v>
+        <v>0.7518766889999652</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7145232110235168</v>
+        <v>0.7577113715334691</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.5557594931372981</v>
+        <v>0.5025085289715897</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>3.7530987239017977</v>
+        <v>3.030254134404404</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.06027497735076372</v>
+        <v>0.06633502351032106</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>5.023926964687105E-5</v>
+        <v>0.055575753546872796</v>
       </c>
       <c r="I13" t="n" s="179">
         <v>0.5581231897861654</v>
@@ -4200,7 +3876,7 @@
         <v>0.05313928419171228</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.011741935354208251</v>
+        <v>0.01174193535420826</v>
       </c>
       <c r="I14" t="n" s="179">
         <v>0.5613635841922703</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>37.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8962484928416377</v>
+        <v>0.8102558229161386</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8836703795241858</v>
+        <v>0.76407826887717</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.8596453078896655</v>
+        <v>0.6954418595585796</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7849315521263169</v>
+        <v>0.600904007358543</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.2972972972972974</v>
+        <v>2.5135135135135136</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.1987230443004493</v>
+        <v>1.3254270092150517</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>37.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.7980260244391103</v>
+        <v>0.8962484928416377</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8140502573685844</v>
+        <v>0.8836703795241858</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.7075248361269367</v>
+        <v>0.8596453078896655</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.6408319253742438</v>
+        <v>0.7849315521263169</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.2162162162162162</v>
+        <v>2.2972972972972974</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.0576476817062563</v>
+        <v>1.1987230443004493</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>37.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.8102558229161386</v>
+        <v>0.7980260244391103</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.76407826887717</v>
+        <v>0.8140502573685844</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6954418595585796</v>
+        <v>0.7075248361269365</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.600904007358543</v>
+        <v>0.6408319253742438</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.5135135135135136</v>
+        <v>2.2162162162162162</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.3254270092150517</v>
+        <v>1.0576476817062563</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.7350499153365436</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.6265631789469646</v>
+        <v>0.6265631789469644</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.5137213142796466</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.35135135135135137</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.24324324324324326</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="D27" t="n" s="225">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="E27" t="n" s="226">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="F27" t="n" s="227">
         <v>0.16216216216216217</v>
-      </c>
-      <c r="E27" t="n" s="226">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="F27" t="n" s="227">
-        <v>0.0</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4416,16 +4092,16 @@
         <v>0.35135135135135137</v>
       </c>
       <c r="C28" t="n" s="224">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="D28" t="n" s="225">
         <v>0.16216216216216217</v>
       </c>
-      <c r="D28" t="n" s="225">
-        <v>0.43243243243243246</v>
-      </c>
       <c r="E28" t="n" s="226">
-        <v>0.02702702702702703</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.02702702702702703</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.21621621621621623</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.40540540540540543</v>
+        <v>0.16216216216216217</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.1891891891891892</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="E29" t="n" s="226">
         <v>0.02702702702702703</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.16216216216216217</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.7886949037165554</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.8222281581353745</v>
+        <v>0.8222281581353746</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.38350845192204397</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7053936854414344</v>
+        <v>0.7928860873480414</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7127561016971813</v>
+        <v>0.8079459964752854</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7595084918620331</v>
+        <v>0.8092186567637498</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.331672497327943</v>
+        <v>0.45692720235148504</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.481362026864635</v>
+        <v>4.206868805894557</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.07790015143219008</v>
+        <v>0.052175865323948994</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.05819119313059285</v>
+        <v>0.0363005741557029</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.30177791507676904</v>
+        <v>0.4823819405429599</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4338,7 @@
         <v>0.721579189538909</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.7626680095632058</v>
+        <v>0.7626680095632057</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.3413847331775555</v>
@@ -4671,7 +4347,7 @@
         <v>2.591685543705967</v>
       </c>
       <c r="G12" t="n" s="291">
-        <v>0.07845051387485266</v>
+        <v>0.07845051387485265</v>
       </c>
       <c r="H12" t="n" s="292">
         <v>0.052248758777035394</v>
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7590844738084002</v>
+        <v>0.7512577399380804</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7822134440932377</v>
+        <v>0.7701538862329784</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.8089217523208635</v>
+        <v>0.7774715724657361</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.4180397203682923</v>
+        <v>0.4012504551651478</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.5916516556151206</v>
+        <v>3.350737037101391</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.06484047211203833</v>
+        <v>0.06276259214358348</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.044315998754929545</v>
+        <v>0.058125899401902416</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.4113001480612972</v>
+        <v>0.4573734876340796</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7136418269230769</v>
+        <v>0.7053936854414344</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7307038724727446</v>
+        <v>0.7127561016971813</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7587989258071434</v>
+        <v>0.7595084918620332</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.35177610314184066</v>
+        <v>0.331672497327943</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>2.7133842554003706</v>
+        <v>2.481362026864635</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.07757436542118903</v>
+        <v>0.07790015143219008</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.04504817530072087</v>
+        <v>0.05819119313059285</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.3862916951524169</v>
+        <v>0.30177791507676904</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7512577399380804</v>
+        <v>0.7590844738084002</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7701538862329784</v>
+        <v>0.7822134440932377</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7774715724657362</v>
+        <v>0.8089217523208636</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.4012504551651478</v>
+        <v>0.4180397203682923</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.350737037101391</v>
+        <v>3.5916516556151206</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.06276259214358348</v>
+        <v>0.06484047211203833</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.058125899401902416</v>
+        <v>0.04431599875492954</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.4573734876340796</v>
+        <v>0.4113001480612972</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7928860873480414</v>
+        <v>0.7136418269230769</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8079459964752854</v>
+        <v>0.7307038724727446</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.8092186567637498</v>
+        <v>0.7587989258071433</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.45692720235148504</v>
+        <v>0.35177610314184066</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>4.206868805894557</v>
+        <v>2.7133842554003706</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.052175865323948994</v>
+        <v>0.07757436542118903</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.036300574155702904</v>
+        <v>0.04504817530072086</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.4823819405429599</v>
+        <v>0.3862916951524169</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>37.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.8013078947177097</v>
+        <v>0.5246733453745004</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.8212143709914957</v>
+        <v>0.5218432899162286</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.7870673705953887</v>
+        <v>0.4078795510822146</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.7178316793789467</v>
+        <v>0.3049746477424352</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>1.8918918918918919</v>
+        <v>3.2972972972972974</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.8427397048971944</v>
+        <v>1.151445103261908</v>
       </c>
     </row>
     <row r="22">
@@ -4895,22 +4571,22 @@
         <v>37.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.6193146193207921</v>
+        <v>0.6490218196216745</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.6147882018012975</v>
+        <v>0.6549161991757675</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.5107716427823759</v>
+        <v>0.582569655114454</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.43746084103282323</v>
+        <v>0.4709277453763471</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.135135135135135</v>
+        <v>3.135135135135135</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.0842857905901357</v>
+        <v>1.109608593708264</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>37.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7954451674872043</v>
+        <v>0.8013078947177097</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7731647731349811</v>
+        <v>0.8212143709914957</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.7433115695165052</v>
+        <v>0.7870673705953888</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.6216954403725365</v>
+        <v>0.7178316793789467</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.2162162162162162</v>
+        <v>1.8918918918918919</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.436336681653387</v>
+        <v>0.8427397048971944</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>37.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6490218196216745</v>
+        <v>0.6193146193207921</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.6549161991757675</v>
+        <v>0.6147882018012975</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.5825696551144539</v>
+        <v>0.5107716427823757</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.4709277453763471</v>
+        <v>0.43746084103282323</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>3.135135135135135</v>
+        <v>2.135135135135135</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>1.109608593708264</v>
+        <v>1.0842857905901357</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>37.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5246733453745004</v>
+        <v>0.7954451674872043</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.5218432899162286</v>
+        <v>0.7731647731349811</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.40787955108221446</v>
+        <v>0.7433115695165052</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.3049746477424352</v>
+        <v>0.6216954403725365</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.2972972972972974</v>
+        <v>2.2162162162162162</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.151445103261908</v>
+        <v>1.436336681653387</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="C31" t="n" s="338">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="D31" t="n" s="339">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="E31" t="n" s="340">
         <v>0.35135135135135137</v>
       </c>
-      <c r="C31" t="n" s="338">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="D31" t="n" s="339">
+      <c r="F31" t="n" s="341">
         <v>0.13513513513513514</v>
-      </c>
-      <c r="E31" t="n" s="340">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="F31" t="n" s="341">
-        <v>0.0</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.2972972972972973</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C33" t="n" s="338">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="D33" t="n" s="339">
         <v>0.43243243243243246</v>
       </c>
-      <c r="D33" t="n" s="339">
-        <v>0.16216216216216217</v>
-      </c>
       <c r="E33" t="n" s="340">
-        <v>0.05405405405405406</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.05405405405405406</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.4864864864864865</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="C34" t="n" s="338">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="D34" t="n" s="339">
         <v>0.13513513513513514</v>
       </c>
-      <c r="D34" t="n" s="339">
-        <v>0.16216216216216217</v>
-      </c>
       <c r="E34" t="n" s="340">
-        <v>0.10810810810810811</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.10810810810810811</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.08108108108108109</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C35" t="n" s="338">
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="D35" t="n" s="339">
         <v>0.16216216216216217</v>
       </c>
-      <c r="D35" t="n" s="339">
-        <v>0.43243243243243246</v>
-      </c>
       <c r="E35" t="n" s="340">
-        <v>0.1891891891891892</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.13513513513513514</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.08108108108108109</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C36" t="n" s="338">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="D36" t="n" s="339">
         <v>0.16216216216216217</v>
       </c>
-      <c r="D36" t="n" s="339">
-        <v>0.2702702702702703</v>
-      </c>
       <c r="E36" t="n" s="340">
-        <v>0.35135135135135137</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.13513513513513514</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.7626137587969649</v>
+        <v>0.5614218504966022</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.7678061475842123</v>
+        <v>0.5584601300297115</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8180143488454077</v>
+        <v>0.4670667741630753</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.320833186394117</v>
+        <v>0.2965674358789152</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>3.306746236370236</v>
+        <v>1.2648011380428466</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.05914923395008274</v>
+        <v>0.12040552294512963</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.7142857142857144</v>
+        <v>2.4144144144144146</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.6675164651845803</v>
+        <v>0.7989399048979247</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.33844739915614613</v>
+        <v>0.2841187901170287</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.6984798685291701</v>
+        <v>0.34454756380510454</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7101437987571062</v>
+        <v>0.35322084235585094</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.771215353703</v>
+        <v>0.21449193154785962</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.2899396994282341</v>
+        <v>0.21449193154785973</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>2.449986564758776</v>
+        <v>0.5461227966009833</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.07758652872862758</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.048611880892430154</v>
-      </c>
+        <v>0.2088240884982938</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.26457138693850674</v>
+        <v>0.21449193154785964</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.6822039766544662</v>
+        <v>0.4283480979676917</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.6839207394493425</v>
+        <v>0.44251169331637197</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7234812064731821</v>
+        <v>0.2841187901170287</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.2650448455222161</v>
+        <v>0.28411879011702856</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>2.1637634125625644</v>
+        <v>0.7937595964097865</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.07960893994329764</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.034580311247272275</v>
-      </c>
+        <v>0.17967387436554488</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.2742137238302458</v>
+        <v>0.2841187901170287</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.706138757718852</v>
+        <v>0.5618936748156771</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7067103976157852</v>
+        <v>0.5622801401657953</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7561589779589085</v>
+        <v>0.39109158597185745</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.286529614327991</v>
+        <v>0.3910915859718571</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>2.4095992216252586</v>
+        <v>1.2845662072056092</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.07397236183029825</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.03581040367648204</v>
-      </c>
+        <v>0.14388596040238438</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.33844739915614613</v>
+        <v>0.3910915859718572</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.7282541975085755</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.7373239536902906</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.7958144277798332</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.3187214724302953</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>2.8069706547240516</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.0688708557588507</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.05107865379507354</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.33844739915614613</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.760942876806607</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.7643756599187795</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7768169066743758</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.3509334027461666</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>3.244043716601168</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.0600012188058708</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.0199825108794488</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.2841187901170287</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.7682036503362152</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.7784603298210373</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.8041198512230905</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.36934143327034724</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>3.5138642627398844</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.0597360958379373</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.033983890755513405</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.3910915859718572</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.7739948674080411</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.7754630649695761</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.8100164110569443</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.36532183703356863</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>3.4536102706866645</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.05655103170697684</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.03644358192407388</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.4189786956101423</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.7977763781649568</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.7662711151919274</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.5824217007617435</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.4395254204807477</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.7837837837837838</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.2049696892253978</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.7584930334189468</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7344225477972631</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.5154720900872591</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.3915086827244037</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>1.945945945945946</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.1533994669369023</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>37.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.622088137482719</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.6854912823604684</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.3961949267564488</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.2998109014352538</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.5135135135135136</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9012837024557319</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7696370255624526</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7488295356132758</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.6896231050079973</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6254195533777324</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.7837837837837838</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.2049696892253978</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.8154995567348149</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.8313551851594316</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.8403743599749909</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.7198512009915835</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.6486486486486487</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>1.005988077470112</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.5135135135135135</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7448791548766582</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7601338593489214</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.7417114128508916</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.6420177181799057</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.4864864864864864</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.86991767240168</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.6584443234439114</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.6534188727890636</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.5586198571216731</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.5064340452538534</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.7567567567567566</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>1.0111985574171487</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.548269024333334</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.5466373474791216</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.4943852781457511</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.3536761202031203</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.864864864864865</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.0842857905901357</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.4617150156159461</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.48561531129411545</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.38476468044851264</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.29003921801318167</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.5135135135135136</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9012837024557319</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>37.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.5205699610950589</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.498940145077263</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.3830558199610288</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.3052870923259847</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>1.945945945945946</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.1533994669369023</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
+      <c r="B27" t="n" s="451">
+        <v>0.16216216216216217</v>
+      </c>
+      <c r="C27" t="n" s="452">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="E27" t="n" s="454">
         <v>0.02702702702702703</v>
       </c>
-      <c r="C34" t="n" s="452">
-        <v>0.5675675675675675</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E35" t="n" s="454">
+      <c r="F27" t="n" s="455">
         <v>0.02702702702702703</v>
       </c>
-      <c r="F35" t="n" s="455">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.32432432432432434</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.05405405405405406</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.24324324324324326</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.5405405405405406</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.5135135135135135</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.16216216216216217</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.08108108108108109</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.02702702702702703</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
